--- a/output/TI_18298411000170.xlsx
+++ b/output/TI_18298411000170.xlsx
@@ -1362,10 +1362,10 @@
         <v>44165</v>
       </c>
       <c r="B89">
-        <v>1.7540489</v>
+        <v>1.7436534</v>
       </c>
       <c r="C89">
-        <v>0.03819369115899507</v>
+        <v>0.03427489998704347</v>
       </c>
     </row>
   </sheetData>

--- a/output/TI_18298411000170.xlsx
+++ b/output/TI_18298411000170.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>TI KAPITALO ZETA FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,986 +383,722 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C89"/>
+  <dimension ref="A1:B89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>41517</v>
       </c>
       <c r="B2">
-        <v>-0.02287810000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>41547</v>
       </c>
       <c r="B3">
-        <v>0.00314419999999993</v>
-      </c>
-      <c r="C3">
         <v>0.02663157994923648</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>41578</v>
       </c>
       <c r="B4">
-        <v>0.01056459999999992</v>
-      </c>
-      <c r="C4">
         <v>0.007397141906417826</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>41608</v>
       </c>
       <c r="B5">
-        <v>0.03399590000000008</v>
-      </c>
-      <c r="C5">
         <v>0.02318634553397203</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>41639</v>
       </c>
       <c r="B6">
-        <v>0.0862814999999999</v>
-      </c>
-      <c r="C6">
         <v>0.05056654479964551</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>41670</v>
       </c>
       <c r="B7">
-        <v>0.09806580000000009</v>
-      </c>
-      <c r="C7">
         <v>0.01084829300692336</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>41698</v>
       </c>
       <c r="B8">
-        <v>0.1336457</v>
-      </c>
-      <c r="C8">
         <v>0.03240233873052034</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>41729</v>
       </c>
       <c r="B9">
-        <v>0.1326784999999999</v>
-      </c>
-      <c r="C9">
         <v>-0.0008531766141750552</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>41759</v>
       </c>
       <c r="B10">
-        <v>0.1470108000000001</v>
-      </c>
-      <c r="C10">
         <v>0.01265345815251218</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>41790</v>
       </c>
       <c r="B11">
-        <v>0.1726544000000001</v>
-      </c>
-      <c r="C11">
         <v>0.02235689498302884</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>41820</v>
       </c>
       <c r="B12">
-        <v>0.1936663000000001</v>
-      </c>
-      <c r="C12">
         <v>0.01791823746194954</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>41851</v>
       </c>
       <c r="B13">
-        <v>0.2271015999999999</v>
-      </c>
-      <c r="C13">
         <v>0.02801059224005886</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>41882</v>
       </c>
       <c r="B14">
-        <v>0.2741085999999999</v>
-      </c>
-      <c r="C14">
         <v>0.03830734146219017</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>41912</v>
       </c>
       <c r="B15">
-        <v>0.2006703999999999</v>
-      </c>
-      <c r="C15">
         <v>-0.05763888572763731</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>41943</v>
       </c>
       <c r="B16">
-        <v>0.193327</v>
-      </c>
-      <c r="C16">
         <v>-0.006116083148214435</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>41973</v>
       </c>
       <c r="B17">
-        <v>0.1731928</v>
-      </c>
-      <c r="C17">
         <v>-0.01687232418272611</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>42004</v>
       </c>
       <c r="B18">
-        <v>0.1751172000000001</v>
-      </c>
-      <c r="C18">
         <v>0.001640310100778031</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>42035</v>
       </c>
       <c r="B19">
-        <v>0.2128626</v>
-      </c>
-      <c r="C19">
         <v>0.03212054082775739</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>42063</v>
       </c>
       <c r="B20">
-        <v>0.2580458000000001</v>
-      </c>
-      <c r="C20">
         <v>0.03725335417218734</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>42094</v>
       </c>
       <c r="B21">
-        <v>0.2652053000000001</v>
-      </c>
-      <c r="C21">
         <v>0.00569096927949686</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>42124</v>
       </c>
       <c r="B22">
-        <v>0.2472871999999999</v>
-      </c>
-      <c r="C22">
         <v>-0.01416220750893171</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>42155</v>
       </c>
       <c r="B23">
-        <v>0.3086964000000001</v>
-      </c>
-      <c r="C23">
         <v>0.04923421005202333</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>42185</v>
       </c>
       <c r="B24">
-        <v>0.2643092</v>
-      </c>
-      <c r="C24">
         <v>-0.03391711018690058</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>42216</v>
       </c>
       <c r="B25">
-        <v>0.3518289000000001</v>
-      </c>
-      <c r="C25">
         <v>0.06922333555747295</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>42247</v>
       </c>
       <c r="B26">
-        <v>0.3006724000000001</v>
-      </c>
-      <c r="C26">
         <v>-0.03784243701255396</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>42277</v>
       </c>
       <c r="B27">
-        <v>0.2559814</v>
-      </c>
-      <c r="C27">
         <v>-0.03435992029968504</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>42308</v>
       </c>
       <c r="B28">
-        <v>0.2381434</v>
-      </c>
-      <c r="C28">
         <v>-0.01420243962211543</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>42338</v>
       </c>
       <c r="B29">
-        <v>0.346886</v>
-      </c>
-      <c r="C29">
         <v>0.08782714506251854</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>42369</v>
       </c>
       <c r="B30">
-        <v>0.3672096</v>
-      </c>
-      <c r="C30">
         <v>0.01508932456050482</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>42400</v>
       </c>
       <c r="B31">
-        <v>0.462151</v>
-      </c>
-      <c r="C31">
         <v>0.06944173007562271</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>42429</v>
       </c>
       <c r="B32">
-        <v>0.4474544</v>
-      </c>
-      <c r="C32">
         <v>-0.01005135584491612</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>42460</v>
       </c>
       <c r="B33">
-        <v>0.4347691</v>
-      </c>
-      <c r="C33">
         <v>-0.008763868485252457</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>42490</v>
       </c>
       <c r="B34">
-        <v>0.5093019000000001</v>
-      </c>
-      <c r="C34">
         <v>0.05194759212475386</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>42521</v>
       </c>
       <c r="B35">
-        <v>0.5073496</v>
-      </c>
-      <c r="C35">
         <v>-0.001293511920974932</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>42551</v>
       </c>
       <c r="B36">
-        <v>0.5689854999999999</v>
-      </c>
-      <c r="C36">
         <v>0.04089024868550739</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>42582</v>
       </c>
       <c r="B37">
-        <v>0.5943696999999999</v>
-      </c>
-      <c r="C37">
         <v>0.0161787346027098</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>42613</v>
       </c>
       <c r="B38">
-        <v>0.6561319000000001</v>
-      </c>
-      <c r="C38">
         <v>0.03873769051180553</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>42643</v>
       </c>
       <c r="B39">
-        <v>0.6882524999999999</v>
-      </c>
-      <c r="C39">
         <v>0.01939495278123671</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>42674</v>
       </c>
       <c r="B40">
-        <v>0.7924332999999999</v>
-      </c>
-      <c r="C40">
         <v>0.06170925261476001</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>42704</v>
       </c>
       <c r="B41">
-        <v>0.7874897999999999</v>
-      </c>
-      <c r="C41">
         <v>-0.002757982681977578</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>42735</v>
       </c>
       <c r="B42">
-        <v>0.8433763999999999</v>
-      </c>
-      <c r="C42">
         <v>0.03126540917883847</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>42766</v>
       </c>
       <c r="B43">
-        <v>0.9378142</v>
-      </c>
-      <c r="C43">
         <v>0.0512308826347132</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>42794</v>
       </c>
       <c r="B44">
-        <v>1.0095426</v>
-      </c>
-      <c r="C44">
         <v>0.03701510702109623</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>42825</v>
       </c>
       <c r="B45">
-        <v>1.0343412</v>
-      </c>
-      <c r="C45">
         <v>0.01234042015332237</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>42855</v>
       </c>
       <c r="B46">
-        <v>1.0087899</v>
-      </c>
-      <c r="C46">
         <v>-0.01255998747899323</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>42886</v>
       </c>
       <c r="B47">
-        <v>0.9622412</v>
-      </c>
-      <c r="C47">
         <v>-0.02317250798602677</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>42916</v>
       </c>
       <c r="B48">
-        <v>1.0187024</v>
-      </c>
-      <c r="C48">
         <v>0.02877383269702016</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>42947</v>
       </c>
       <c r="B49">
-        <v>1.1118576</v>
-      </c>
-      <c r="C49">
         <v>0.04614607878803723</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>42978</v>
       </c>
       <c r="B50">
-        <v>1.1456369</v>
-      </c>
-      <c r="C50">
         <v>0.01599506519757776</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>43008</v>
       </c>
       <c r="B51">
-        <v>1.2328488</v>
-      </c>
-      <c r="C51">
         <v>0.04064615965543861</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>43039</v>
       </c>
       <c r="B52">
-        <v>1.2086309</v>
-      </c>
-      <c r="C52">
         <v>-0.01084618895824918</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>43069</v>
       </c>
       <c r="B53">
-        <v>1.2002067</v>
-      </c>
-      <c r="C53">
         <v>-0.003814218120375079</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>43100</v>
       </c>
       <c r="B54">
-        <v>1.2096878</v>
-      </c>
-      <c r="C54">
         <v>0.004309186041475233</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>43131</v>
       </c>
       <c r="B55">
-        <v>1.3248697</v>
-      </c>
-      <c r="C55">
         <v>0.05212587045102013</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>43159</v>
       </c>
       <c r="B56">
-        <v>1.39605</v>
-      </c>
-      <c r="C56">
         <v>0.03061689865887973</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>43190</v>
       </c>
       <c r="B57">
-        <v>1.4845819</v>
-      </c>
-      <c r="C57">
         <v>0.03694910373322768</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>43220</v>
       </c>
       <c r="B58">
-        <v>1.5556952</v>
-      </c>
-      <c r="C58">
         <v>0.02862183774259974</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:2">
       <c r="A59" s="2">
         <v>43251</v>
       </c>
       <c r="B59">
-        <v>1.4813998</v>
-      </c>
-      <c r="C59">
         <v>-0.02907052452890313</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:2">
       <c r="A60" s="2">
         <v>43281</v>
       </c>
       <c r="B60">
-        <v>1.5450563</v>
-      </c>
-      <c r="C60">
         <v>0.02565346382312117</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="2">
         <v>43312</v>
       </c>
       <c r="B61">
-        <v>1.5864684</v>
-      </c>
-      <c r="C61">
         <v>0.0162715850333055</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:2">
       <c r="A62" s="2">
         <v>43343</v>
       </c>
       <c r="B62">
-        <v>1.5784664</v>
-      </c>
-      <c r="C62">
         <v>-0.003093793838733871</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:2">
       <c r="A63" s="2">
         <v>43373</v>
       </c>
       <c r="B63">
-        <v>1.6400075</v>
-      </c>
-      <c r="C63">
         <v>0.02386732671792813</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:2">
       <c r="A64" s="2">
         <v>43404</v>
       </c>
       <c r="B64">
-        <v>1.728276</v>
-      </c>
-      <c r="C64">
         <v>0.03343494289315485</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:2">
       <c r="A65" s="2">
         <v>43434</v>
       </c>
       <c r="B65">
-        <v>1.6566047</v>
-      </c>
-      <c r="C65">
         <v>-0.02626981287816932</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:2">
       <c r="A66" s="2">
         <v>43465</v>
       </c>
       <c r="B66">
-        <v>1.603987</v>
-      </c>
-      <c r="C66">
         <v>-0.01980637164422694</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:2">
       <c r="A67" s="2">
         <v>43496</v>
       </c>
       <c r="B67">
-        <v>1.7187091</v>
-      </c>
-      <c r="C67">
         <v>0.04405632593403874</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:2">
       <c r="A68" s="2">
         <v>43524</v>
       </c>
       <c r="B68">
-        <v>1.7394278</v>
-      </c>
-      <c r="C68">
         <v>0.00762078590901849</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:2">
       <c r="A69" s="2">
         <v>43555</v>
       </c>
       <c r="B69">
-        <v>1.7338291</v>
-      </c>
-      <c r="C69">
         <v>-0.002043747968097587</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:2">
       <c r="A70" s="2">
         <v>43585</v>
       </c>
       <c r="B70">
-        <v>1.7302474</v>
-      </c>
-      <c r="C70">
         <v>-0.001310140418067762</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:2">
       <c r="A71" s="2">
         <v>43616</v>
       </c>
       <c r="B71">
-        <v>1.7158777</v>
-      </c>
-      <c r="C71">
         <v>-0.005263149412760182</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:2">
       <c r="A72" s="2">
         <v>43646</v>
       </c>
       <c r="B72">
-        <v>1.8241804</v>
-      </c>
-      <c r="C72">
         <v>0.03987760568158127</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:2">
       <c r="A73" s="2">
         <v>43677</v>
       </c>
       <c r="B73">
-        <v>1.8011889</v>
-      </c>
-      <c r="C73">
         <v>-0.008140945953735712</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:2">
       <c r="A74" s="2">
         <v>43708</v>
       </c>
       <c r="B74">
-        <v>1.8059495</v>
-      </c>
-      <c r="C74">
         <v>0.001699492668987723</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:2">
       <c r="A75" s="2">
         <v>43738</v>
       </c>
       <c r="B75">
-        <v>1.8397842</v>
-      </c>
-      <c r="C75">
         <v>0.01205819990701906</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:2">
       <c r="A76" s="2">
         <v>43769</v>
       </c>
       <c r="B76">
-        <v>1.9243793</v>
-      </c>
-      <c r="C76">
         <v>0.02978927060725245</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:2">
       <c r="A77" s="2">
         <v>43799</v>
       </c>
       <c r="B77">
-        <v>1.9194232</v>
-      </c>
-      <c r="C77">
         <v>-0.001694752797627763</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:2">
       <c r="A78" s="2">
         <v>43830</v>
       </c>
       <c r="B78">
-        <v>2.0136996</v>
-      </c>
-      <c r="C78">
         <v>0.0322928172934982</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:2">
       <c r="A79" s="2">
         <v>43861</v>
       </c>
       <c r="B79">
-        <v>1.9509082</v>
-      </c>
-      <c r="C79">
         <v>-0.02083532147663281</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:2">
       <c r="A80" s="2">
         <v>43890</v>
       </c>
       <c r="B80">
-        <v>1.8632552</v>
-      </c>
-      <c r="C80">
         <v>-0.02970373663267478</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:2">
       <c r="A81" s="2">
         <v>43921</v>
       </c>
       <c r="B81">
-        <v>1.5533205</v>
-      </c>
-      <c r="C81">
         <v>-0.1082455730805972</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:2">
       <c r="A82" s="2">
         <v>43951</v>
       </c>
       <c r="B82">
-        <v>1.6055932</v>
-      </c>
-      <c r="C82">
         <v>0.02047243971134849</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:2">
       <c r="A83" s="2">
         <v>43982</v>
       </c>
       <c r="B83">
-        <v>1.6696103</v>
-      </c>
-      <c r="C83">
         <v>0.02456910771796617</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:2">
       <c r="A84" s="2">
         <v>44012</v>
       </c>
       <c r="B84">
-        <v>1.6622392</v>
-      </c>
-      <c r="C84">
         <v>-0.00276111460912476</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:2">
       <c r="A85" s="2">
         <v>44043</v>
       </c>
       <c r="B85">
-        <v>1.7392405</v>
-      </c>
-      <c r="C85">
         <v>0.02892350920232856</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:2">
       <c r="A86" s="2">
         <v>44074</v>
       </c>
       <c r="B86">
-        <v>1.7631348</v>
-      </c>
-      <c r="C86">
         <v>0.008722965362113921</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:2">
       <c r="A87" s="2">
         <v>44104</v>
       </c>
       <c r="B87">
-        <v>1.6745137</v>
-      </c>
-      <c r="C87">
         <v>-0.03207266616163651</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:2">
       <c r="A88" s="2">
         <v>44135</v>
       </c>
       <c r="B88">
-        <v>1.6527313</v>
-      </c>
-      <c r="C88">
         <v>-0.008144433883438218</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:2">
       <c r="A89" s="2">
         <v>44165</v>
       </c>
       <c r="B89">
-        <v>1.7436534</v>
-      </c>
-      <c r="C89">
-        <v>0.03427489998704347</v>
+        <v>0.02409056657943442</v>
       </c>
     </row>
   </sheetData>
